--- a/data/trans_orig/P14B97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B97-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E831070-0838-4242-8E3A-D45D3D59DDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE60521-CD01-426C-816C-A5CE6C1DF7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86BC0F8D-7F60-4E1A-8D96-ECC71A25F8AF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5118C85C-473E-4921-8717-568F2502EDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -85,19 +85,19 @@
     <t>58,32%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>47,31%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>41,68%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -136,55 +136,55 @@
     <t>33,5%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
   </si>
   <si>
     <t>33,93%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
   </si>
   <si>
     <t>66,5%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>66,07%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -193,55 +193,55 @@
     <t>30,39%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
   </si>
   <si>
     <t>46,06%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>53,94%</t>
   </si>
   <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>58,27%</t>
   </si>
   <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -250,55 +250,55 @@
     <t>65,61%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>38,13%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>48,39%</t>
   </si>
   <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>61,87%</t>
   </si>
   <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -307,883 +307,883 @@
     <t>61,99%</t>
   </si>
   <si>
-    <t>39,84%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
   </si>
   <si>
     <t>55,44%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>44,56%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B32C6D8-BE10-4947-900A-EAA47DEF0D1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C4DFB9-1F71-436F-A2BD-99351BF68518}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2345,7 +2345,7 @@
         <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2354,13 +2354,13 @@
         <v>20222</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2369,13 +2369,13 @@
         <v>32613</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2390,13 @@
         <v>7598</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2405,13 +2405,13 @@
         <v>28276</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -2420,13 +2420,13 @@
         <v>35874</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2482,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2494,13 +2494,13 @@
         <v>19117</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2509,13 +2509,13 @@
         <v>21050</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -2524,13 +2524,13 @@
         <v>40166</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2545,13 @@
         <v>11156</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -2560,13 +2560,13 @@
         <v>24565</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -2575,13 +2575,13 @@
         <v>35721</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2649,13 @@
         <v>61491</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -2664,13 +2664,13 @@
         <v>94798</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -2679,13 +2679,13 @@
         <v>156289</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2700,13 @@
         <v>54313</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>119</v>
@@ -2715,13 +2715,13 @@
         <v>127859</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>172</v>
@@ -2730,13 +2730,13 @@
         <v>182172</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2792,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB22830-4853-4173-AE12-E1CA0A811A38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8995E1-C4EE-4270-B7F9-EAD8EA5F8F32}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,7 +2831,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2938,13 +2938,13 @@
         <v>4050</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2953,13 +2953,13 @@
         <v>1881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2968,13 +2968,13 @@
         <v>5931</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2989,13 @@
         <v>3028</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3004,10 +3004,10 @@
         <v>5685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3019,13 +3019,13 @@
         <v>8713</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3093,13 @@
         <v>5960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3108,13 +3108,13 @@
         <v>8014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3123,13 +3123,13 @@
         <v>13974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3144,13 @@
         <v>7623</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -3159,13 +3159,13 @@
         <v>19513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -3174,13 +3174,13 @@
         <v>27136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3248,13 @@
         <v>8142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3263,13 +3263,13 @@
         <v>12585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3278,13 +3278,13 @@
         <v>20727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3299,13 @@
         <v>5912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3314,13 +3314,13 @@
         <v>35487</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -3329,13 +3329,13 @@
         <v>41399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3403,13 @@
         <v>21884</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3418,13 +3418,13 @@
         <v>25737</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -3433,13 +3433,13 @@
         <v>47621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3454,13 @@
         <v>12244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3469,13 +3469,13 @@
         <v>45967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -3484,13 +3484,13 @@
         <v>58211</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3558,13 @@
         <v>19272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3573,13 +3573,13 @@
         <v>34224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3588,13 +3588,13 @@
         <v>53496</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3609,13 @@
         <v>12921</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3624,13 +3624,13 @@
         <v>28889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -3639,13 +3639,13 @@
         <v>41810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3713,13 +3713,13 @@
         <v>17032</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -3728,13 +3728,13 @@
         <v>49930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -3743,13 +3743,13 @@
         <v>66962</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3764,13 @@
         <v>13241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3779,13 +3779,13 @@
         <v>34327</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -3794,13 +3794,13 @@
         <v>47568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3868,13 @@
         <v>76339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -3883,13 +3883,13 @@
         <v>132372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>191</v>
@@ -3898,13 +3898,13 @@
         <v>208711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3919,13 @@
         <v>54970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>157</v>
@@ -3934,13 +3934,13 @@
         <v>169867</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>210</v>
@@ -3949,13 +3949,13 @@
         <v>224836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +4011,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F73E5F-ABA6-4194-A883-5B24F681BE5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672BEBED-344C-42EE-8152-C4568536DF10}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4050,7 +4050,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4157,13 +4157,13 @@
         <v>4913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4172,13 +4172,13 @@
         <v>7886</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4187,13 +4187,13 @@
         <v>12799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +4208,10 @@
         <v>6230</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4223,13 +4223,13 @@
         <v>12756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4238,13 +4238,13 @@
         <v>18986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4312,13 @@
         <v>7652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4327,13 +4327,13 @@
         <v>8065</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4342,13 +4342,13 @@
         <v>15717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4363,13 @@
         <v>11123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -4378,13 +4378,13 @@
         <v>22435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -4393,13 +4393,13 @@
         <v>33558</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4467,13 @@
         <v>19008</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4482,13 +4482,13 @@
         <v>17085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4497,13 +4497,13 @@
         <v>36093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4518,13 @@
         <v>13991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -4533,13 +4533,13 @@
         <v>19858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -4548,13 +4548,13 @@
         <v>33849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4622,13 @@
         <v>33207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4637,13 +4637,13 @@
         <v>34559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -4652,13 +4652,13 @@
         <v>67766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4673,13 @@
         <v>27000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4688,13 +4688,13 @@
         <v>32638</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -4703,13 +4703,13 @@
         <v>59638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4777,13 @@
         <v>46288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -4792,13 +4792,13 @@
         <v>39166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4807,13 +4807,13 @@
         <v>85454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4828,13 @@
         <v>37207</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4843,13 +4843,13 @@
         <v>28336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -4858,13 +4858,13 @@
         <v>65543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,7 +4920,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4932,13 +4932,13 @@
         <v>45796</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
         <v>199</v>
@@ -4947,13 +4947,13 @@
         <v>103014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
         <v>268</v>
@@ -4962,13 +4962,13 @@
         <v>148810</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4983,13 @@
         <v>39198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -4998,13 +4998,13 @@
         <v>53423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -5013,13 +5013,13 @@
         <v>92621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5087,13 @@
         <v>156863</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -5102,13 +5102,13 @@
         <v>209775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -5117,13 +5117,13 @@
         <v>366639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5138,13 @@
         <v>134749</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>373</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>256</v>
@@ -5153,13 +5153,13 @@
         <v>169446</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>415</v>
@@ -5168,7 +5168,7 @@
         <v>304195</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>380</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B97-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE60521-CD01-426C-816C-A5CE6C1DF7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E83240-D47B-4FFB-83D7-93CB34BDD7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5118C85C-473E-4921-8717-568F2502EDF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{210F0B6E-937E-4272-AF8D-1978FE0A1D14}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="384">
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2012 (Tasa respuesta: 4,87%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>58,32%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>47,31%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>41,68%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -136,55 +136,55 @@
     <t>33,5%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
   </si>
   <si>
     <t>33,93%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>66,5%</t>
   </si>
   <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>66,07%</t>
   </si>
   <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -193,55 +193,49 @@
     <t>30,39%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
   </si>
   <si>
     <t>46,06%</t>
   </si>
   <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>29,44%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>53,94%</t>
   </si>
   <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
   </si>
   <si>
     <t>58,27%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>70,56%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -250,55 +244,55 @@
     <t>65,61%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>38,13%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
   </si>
   <si>
     <t>48,39%</t>
   </si>
   <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
   </si>
   <si>
     <t>61,87%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -307,520 +301,538 @@
     <t>61,99%</t>
   </si>
   <si>
-    <t>36,09%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>41,7%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>47,62%</t>
   </si>
   <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>64,12%</t>
   </si>
   <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>35,89%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>45,0%</t>
   </si>
   <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
+    <t>54,81%</t>
   </si>
   <si>
     <t>35,88%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
   </si>
   <si>
     <t>64,11%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>55,0%</t>
   </si>
   <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
+    <t>45,19%</t>
   </si>
   <si>
     <t>59,86%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>54,23%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>56,13%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>40,14%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
   </si>
   <si>
     <t>45,77%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
   </si>
   <si>
     <t>56,26%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>67,55%</t>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
   </si>
   <si>
     <t>43,74%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>32,45%</t>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
   </si>
   <si>
     <t>43,8%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
   </si>
   <si>
     <t>56,2%</t>
   </si>
   <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
@@ -1141,9 +1153,6 @@
     <t>59,44%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
     <t>51,09%</t>
   </si>
   <si>
@@ -1166,9 +1175,6 @@
   </si>
   <si>
     <t>52,29%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
   </si>
   <si>
     <t>39,83%</t>
@@ -1595,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C4DFB9-1F71-436F-A2BD-99351BF68518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804F4096-4CBC-43F1-A1A4-0548BFD87DFF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2065,7 +2071,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2086,13 @@
         <v>10550</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -2095,13 +2101,13 @@
         <v>21428</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -2110,13 +2116,13 @@
         <v>31979</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,7 +2178,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2184,13 +2190,13 @@
         <v>19289</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2199,13 +2205,13 @@
         <v>18803</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -2214,13 +2220,13 @@
         <v>38092</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2241,13 @@
         <v>10112</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -2250,13 +2256,13 @@
         <v>30507</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -2265,13 +2271,13 @@
         <v>40619</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,7 +2333,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2339,13 +2345,13 @@
         <v>12391</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2354,13 +2360,13 @@
         <v>20222</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2369,13 +2375,13 @@
         <v>32613</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,10 +2396,10 @@
         <v>7598</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>97</v>
@@ -2814,7 +2820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8995E1-C4EE-4270-B7F9-EAD8EA5F8F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B618ABE8-B48D-459B-A3D0-33FC8BF6BEA5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,13 +3099,13 @@
         <v>5960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3108,13 +3114,13 @@
         <v>8014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3123,13 +3129,13 @@
         <v>13974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3150,13 @@
         <v>7623</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -3159,13 +3165,13 @@
         <v>19513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -3174,13 +3180,13 @@
         <v>27136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3254,13 @@
         <v>8142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3263,13 +3269,13 @@
         <v>12585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3278,13 +3284,13 @@
         <v>20727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3305,13 @@
         <v>5912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3314,13 +3320,13 @@
         <v>35487</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -3329,13 +3335,13 @@
         <v>41399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,7 +3397,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3403,13 +3409,13 @@
         <v>21884</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3418,13 +3424,13 @@
         <v>25737</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -3433,13 +3439,13 @@
         <v>47621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3460,13 @@
         <v>12244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3469,13 +3475,13 @@
         <v>45967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -3484,13 +3490,13 @@
         <v>58211</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3552,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3558,13 +3564,13 @@
         <v>19272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3573,13 +3579,13 @@
         <v>34224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3588,13 +3594,13 @@
         <v>53496</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3615,13 @@
         <v>12921</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3624,13 +3630,13 @@
         <v>28889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -3639,13 +3645,13 @@
         <v>41810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3719,13 @@
         <v>17032</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -3728,13 +3734,13 @@
         <v>49930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -3743,13 +3749,13 @@
         <v>66962</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3770,13 @@
         <v>13241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3779,13 +3785,13 @@
         <v>34327</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -3794,13 +3800,13 @@
         <v>47568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3874,13 @@
         <v>76339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -3883,13 +3889,13 @@
         <v>132372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>191</v>
@@ -3898,13 +3904,13 @@
         <v>208711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3925,13 @@
         <v>54970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>157</v>
@@ -3934,13 +3940,13 @@
         <v>169867</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>210</v>
@@ -3949,13 +3955,13 @@
         <v>224836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,7 +4039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672BEBED-344C-42EE-8152-C4568536DF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76813C9-B56C-46DB-A2C3-C7A1D52104E1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4050,7 +4056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4157,13 +4163,13 @@
         <v>4913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4172,13 +4178,13 @@
         <v>7886</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4187,13 +4193,13 @@
         <v>12799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +4214,10 @@
         <v>6230</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4223,13 +4229,13 @@
         <v>12756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4238,13 +4244,13 @@
         <v>18986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4318,13 @@
         <v>7652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4327,13 +4333,13 @@
         <v>8065</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4342,13 +4348,13 @@
         <v>15717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4369,13 @@
         <v>11123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -4378,13 +4384,13 @@
         <v>22435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -4393,13 +4399,13 @@
         <v>33558</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4473,13 @@
         <v>19008</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4482,13 +4488,13 @@
         <v>17085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4497,13 +4503,13 @@
         <v>36093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4524,13 @@
         <v>13991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -4533,13 +4539,13 @@
         <v>19858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -4548,13 +4554,13 @@
         <v>33849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4616,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4622,13 +4628,13 @@
         <v>33207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4637,13 +4643,13 @@
         <v>34559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -4652,13 +4658,13 @@
         <v>67766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4679,13 @@
         <v>27000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4688,13 +4694,13 @@
         <v>32638</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -4703,13 +4709,13 @@
         <v>59638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,7 +4771,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4777,13 +4783,13 @@
         <v>46288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -4792,13 +4798,13 @@
         <v>39166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4807,13 +4813,13 @@
         <v>85454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4834,13 @@
         <v>37207</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4843,13 +4849,13 @@
         <v>28336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -4858,13 +4864,13 @@
         <v>65543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4938,13 @@
         <v>45796</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H19" s="7">
         <v>199</v>
@@ -4947,13 +4953,13 @@
         <v>103014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>268</v>
@@ -4962,13 +4968,13 @@
         <v>148810</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4989,13 @@
         <v>39198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -4998,13 +5004,13 @@
         <v>53423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -5013,13 +5019,13 @@
         <v>92621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5093,13 @@
         <v>156863</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -5102,13 +5108,13 @@
         <v>209775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -5117,13 +5123,13 @@
         <v>366639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5144,13 @@
         <v>134749</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>256</v>
@@ -5153,13 +5159,13 @@
         <v>169446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M23" s="7">
         <v>415</v>
@@ -5168,13 +5174,13 @@
         <v>304195</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
